--- a/statistics/R/roiObjectLvl_Within-PLI_delta/output.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_delta/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03826219111545209</v>
+        <v>0.03507367518916438</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0832353271088449</v>
+        <v>-0.07629904984977448</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.019728559535506063</v>
+        <v>-0.0180845129075472</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01480644958905819</v>
+        <v>0.013572578789970036</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.012119447581404208</v>
+        <v>-0.011109493616287103</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004237177847354168</v>
+        <v>0.0038840796934079824</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0038028459810217075</v>
+        <v>0.003485942149269894</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05169203386229321</v>
+        <v>-0.04738436437376875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06035368033906591</v>
+        <v>0.05532420697747703</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.042445832087775914</v>
+        <v>-0.038908679413794445</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.022958854160900266</v>
+        <v>-0.02104561631415841</v>
       </c>
       <c r="H3" t="n">
-        <v>0.012010097708038348</v>
+        <v>0.011009256232368314</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007888780267296835</v>
+        <v>0.007231381911688761</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.006545230948630798</v>
+        <v>-0.005999795036244759</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01597224709352857</v>
+        <v>0.014641226502401239</v>
       </c>
       <c r="F4" t="n">
-        <v>0.030103015610261852</v>
+        <v>0.027594430976073503</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002684256021403264</v>
+        <v>0.0024605680196196356</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04279410801149941</v>
+        <v>0.03922793234387445</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.015491687541376975</v>
+        <v>0.014200713579595514</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03354305017677872</v>
+        <v>-0.030747795995380522</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005966778917378013</v>
+        <v>0.005469547340929692</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.027241167557373047</v>
+        <v>-0.024971070260925432</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02380946614482443</v>
+        <v>0.021825343966088984</v>
       </c>
       <c r="H5" t="n">
-        <v>0.021764572799215898</v>
+        <v>0.01995085839928118</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.004602569819961155</v>
+        <v>-0.004219022334964184</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009378469348081286</v>
+        <v>0.008596930235741318</v>
       </c>
       <c r="E6" t="n">
-        <v>0.016711276677397413</v>
+        <v>0.015318670287614355</v>
       </c>
       <c r="F6" t="n">
-        <v>0.042503035469787454</v>
+        <v>0.038961115847305106</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00860493469189122</v>
+        <v>0.007887856800900261</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.034160501551805944</v>
+        <v>-0.03131379308915555</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.005959798800596494</v>
+        <v>-0.0054631489005467215</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005792862919112629</v>
+        <v>0.005310124342519984</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02334393836370119</v>
+        <v>-0.021398610166726117</v>
       </c>
       <c r="F7" t="n">
-        <v>0.017549944879137358</v>
+        <v>0.016087449472542426</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03665540162046377</v>
+        <v>0.033600784818758445</v>
       </c>
       <c r="H7" t="n">
-        <v>0.031635316987283724</v>
+        <v>0.028999040571676793</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05174691747581772</v>
+        <v>0.047434674352832884</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.015096953502750698</v>
+        <v>-0.013838874044188043</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008971953588930881</v>
+        <v>-0.008224290789853317</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.016953189054638496</v>
+        <v>-0.015540423300085093</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01618269071685219</v>
+        <v>-0.01483413315711446</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04438111707133452</v>
+        <v>0.04068269064872332</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.030113357126697105</v>
+        <v>-0.027603910699472323</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.00671459709728589</v>
+        <v>-0.006155047339178765</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04046180295889662</v>
+        <v>-0.03708998604565522</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001998193509580637</v>
+        <v>0.0018316773837822042</v>
       </c>
       <c r="G9" t="n">
-        <v>0.011446240172117983</v>
+        <v>0.010492386824441369</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06470896535732545</v>
+        <v>0.05931655157754823</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007768403804209401</v>
+        <v>0.007121036820525228</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0022619130170618007</v>
+        <v>0.002073420265639947</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.007515549751574591</v>
+        <v>-0.006889253938943352</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01944727825253939</v>
+        <v>0.017826671731494492</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.005581550871406049</v>
+        <v>-0.0051164216321221145</v>
       </c>
       <c r="H10" t="n">
-        <v>0.012599954342738473</v>
+        <v>0.011549958147510198</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.003118017248451954</v>
+        <v>-0.0028581824777476617</v>
       </c>
       <c r="D11" t="n">
-        <v>0.022142807611915116</v>
+        <v>0.020297573644255495</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.011873816221642242</v>
+        <v>-0.010884331536505476</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04911255835168876</v>
+        <v>0.045019845155714666</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01584635171591703</v>
+        <v>0.014525822406257272</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05040108844456659</v>
+        <v>0.046200997740852845</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05947971851862016</v>
+        <v>-0.05452307530873507</v>
       </c>
       <c r="D12" t="n">
-        <v>0.018354591113068197</v>
+        <v>0.016825041853645917</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02191143309155741</v>
+        <v>-0.020085480333927486</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09750038563376268</v>
+        <v>0.0893753534976156</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.001044902750748422</v>
+        <v>-9.578275215192944E-4</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007662225053529315</v>
+        <v>0.007023706299068566</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.010749103426449025</v>
+        <v>-0.009853344807578213</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01861787677005078</v>
+        <v>0.017066387039213204</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0013501309267900385</v>
+        <v>-0.0012376200162242945</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03183543509630471</v>
+        <v>-0.029182482171612678</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.010089280016816304</v>
+        <v>-0.009248506682081548</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04880296413477192</v>
+        <v>-0.04473605045687429</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.023521620623069783</v>
+        <v>-0.021561485571147454</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.00910676816473921</v>
+        <v>-0.008347870817677627</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01918358626433153</v>
+        <v>-0.01758495407563726</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03834180112952501</v>
+        <v>0.035146651035397936</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02221900047987002</v>
+        <v>-0.020367417106547603</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.010589456900392424</v>
+        <v>-0.009707002158692968</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.030458131248644937</v>
+        <v>-0.027919953644591267</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.012526642961425638</v>
+        <v>-0.011482756047973441</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01955134872755021</v>
+        <v>-0.017922069666920948</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.019180009454609015</v>
+        <v>-0.01758167533339161</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01324353352951363</v>
+        <v>-0.012139905735387369</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01251472245261076</v>
+        <v>0.011471828914893012</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.05272979548341877</v>
+        <v>-0.04833564585980049</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.002460490818614436</v>
+        <v>-0.002255449917063279</v>
       </c>
       <c r="E16" t="n">
-        <v>0.010180010180010246</v>
+        <v>0.009331675998342726</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03681222159483016</v>
+        <v>-0.033744536461927765</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.05142062651944085</v>
+        <v>-0.047135574309487394</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.015073911280219898</v>
+        <v>-0.013817752006868356</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08502903430439657</v>
+        <v>0.07794328144569695</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.017610066008235448</v>
+        <v>-0.016142560507549086</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.028736246127550436</v>
+        <v>-0.026341558950254584</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02274091404526174</v>
+        <v>0.02084583787482336</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.012251099207620963</v>
+        <v>-0.011230174273652582</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0339526897497911</v>
+        <v>0.03112329893730864</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.053851874599395555</v>
+        <v>-0.04936421838277921</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.02908671547115499</v>
+        <v>-0.026662822515225282</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.004781351861488092</v>
+        <v>-0.004382905873030807</v>
       </c>
       <c r="F18" t="n">
-        <v>0.061577445848545576</v>
+        <v>0.05644599202783346</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.014176966350879394</v>
+        <v>-0.01299555248830625</v>
       </c>
       <c r="H18" t="n">
-        <v>0.020983695776656264</v>
+        <v>0.01923505446193502</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.016551022399883708</v>
+        <v>0.015171770533226658</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.00476992143658822</v>
+        <v>-0.004372427983539207</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.010472829313409038</v>
+        <v>-0.009600093537291576</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.002006051709914858</v>
+        <v>-0.001838880734088666</v>
       </c>
       <c r="G19" t="n">
-        <v>0.014640367266002652</v>
+        <v>0.013420336660502297</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.015373126172565144</v>
+        <v>-0.0140920323248514</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.025473261498106137</v>
+        <v>0.023350489706597366</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02889724400021898</v>
+        <v>0.026489140333533945</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0014484307962568388</v>
+        <v>-0.0013277282299019588</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05986139937546586</v>
+        <v>0.05487294942751031</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.003576938359547144</v>
+        <v>-0.0032788601629180625</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.008586095834908214</v>
+        <v>-0.00787058784866601</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05726620944012245</v>
+        <v>0.05249402532011227</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.03554486449223304</v>
+        <v>-0.03258279245121354</v>
       </c>
       <c r="E21" t="n">
-        <v>0.11482870178522342</v>
+        <v>0.10525964330312165</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06434877945175427</v>
+        <v>0.05898638116410804</v>
       </c>
       <c r="G21" t="n">
-        <v>0.026326768832489633</v>
+        <v>0.02413287142978221</v>
       </c>
       <c r="H21" t="n">
-        <v>0.045002305871871096</v>
+        <v>0.04125211371588178</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04636960007803986</v>
+        <v>0.04250546673820316</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.010110159566681431</v>
+        <v>-0.009267646269457974</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.011204946605144261</v>
+        <v>-0.010271201054715628</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.019669174097764974</v>
+        <v>-0.018030076256284444</v>
       </c>
       <c r="G22" t="n">
-        <v>0.026717037276043354</v>
+        <v>0.02449061750303988</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0065842239755283805</v>
+        <v>-0.006035538644234284</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.001787336932264294</v>
+        <v>-0.0016383921879090102</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.45661415226717E-4</v>
+        <v>-5.001896306245368E-4</v>
       </c>
       <c r="E23" t="n">
-        <v>0.007186002609343545</v>
+        <v>0.0065871690585649345</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.002350763220328511</v>
+        <v>-0.0021548662853010936</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.028254524249947566</v>
+        <v>-0.025899980562451907</v>
       </c>
       <c r="H23" t="n">
-        <v>0.013984842949037513</v>
+        <v>0.012819439369950891</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.005786418829897111</v>
+        <v>-0.005304217260738986</v>
       </c>
       <c r="D24" t="n">
-        <v>0.020014031932414855</v>
+        <v>0.01834619593804704</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004182612878265102</v>
+        <v>0.0038340618050761166</v>
       </c>
       <c r="F24" t="n">
-        <v>0.005663037699651041</v>
+        <v>0.0051911178913467415</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06312934459387565</v>
+        <v>0.057868565877719214</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03009021658907235</v>
+        <v>0.027582698539983075</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01755811575901528</v>
+        <v>0.01609493944576401</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003807590764112634</v>
+        <v>0.0034902915337697293</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06682620714241272</v>
+        <v>0.06125735654721165</v>
       </c>
       <c r="F25" t="n">
-        <v>0.019392345479302076</v>
+        <v>0.01777631668936025</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.005308197459524322</v>
+        <v>-0.004865847671230605</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0017059072765595595</v>
+        <v>0.001563748336846138</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.004076396524909098</v>
+        <v>-0.003736696814500229</v>
       </c>
       <c r="D26" t="n">
-        <v>0.033860221437861215</v>
+        <v>0.031038536318039378</v>
       </c>
       <c r="E26" t="n">
-        <v>0.012560643692938578</v>
+        <v>0.01151392338519358</v>
       </c>
       <c r="F26" t="n">
-        <v>0.019272583868857163</v>
+        <v>0.01766653521311906</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01756657191439792</v>
+        <v>0.016102690921531493</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.024775984174961074</v>
+        <v>-0.022711318827047855</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03183451009537969</v>
+        <v>0.02918163425409792</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0017712815195653486</v>
+        <v>0.001623674726268176</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.016942222532284668</v>
+        <v>-0.015530370654594283</v>
       </c>
       <c r="F27" t="n">
-        <v>7.537181450223973E-4</v>
+        <v>6.909082996039428E-4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02222817440208741</v>
+        <v>0.020375826535246833</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03561975301105741</v>
+        <v>0.03265144026013589</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008306793658760525</v>
+        <v>0.0076145608538638054</v>
       </c>
       <c r="D28" t="n">
-        <v>0.016467889539418468</v>
+        <v>0.015095565411133605</v>
       </c>
       <c r="E28" t="n">
-        <v>0.036009729850309646</v>
+        <v>0.03300891902945052</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02110087117851095</v>
+        <v>0.019342465246968366</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001061853616451891</v>
+        <v>9.733658150807845E-4</v>
       </c>
       <c r="H28" t="n">
-        <v>0.012655786952462167</v>
+        <v>0.011601138039756875</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.035873610244319565</v>
+        <v>0.032884142723959675</v>
       </c>
       <c r="D29" t="n">
-        <v>0.024141763272198136</v>
+        <v>0.022129949666181647</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.008527796571274893</v>
+        <v>-0.007817146857001966</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01653896424390433</v>
+        <v>0.015160717223578868</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.014511866064661039</v>
+        <v>-0.013302543892605878</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.001786371351588767</v>
+        <v>-0.0016375070722897123</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.010392365827148475</v>
+        <v>0.009526335341552616</v>
       </c>
       <c r="D30" t="n">
-        <v>0.028314515814515884</v>
+        <v>0.025954972829972722</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0468199471822659</v>
+        <v>-0.042918284917077054</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.03762545719067473</v>
+        <v>-0.034490002424785005</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04454639563335211</v>
+        <v>0.040834195997239475</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.02365711576237889</v>
+        <v>-0.021685689448847356</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="G2" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="3">
@@ -1135,7 +1135,7 @@
         <v>-0.003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="4">
@@ -1158,7 +1158,7 @@
         <v>0.002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="5">
@@ -1178,10 +1178,10 @@
         <v>29.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="G5" t="n">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="6">
@@ -1204,7 +1204,7 @@
         <v>0.003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>11.0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.05947971851862016</v>
+        <v>-0.05452307530873507</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>16.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08502903430439657</v>
+        <v>0.07794328144569695</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>17.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.053851874599395555</v>
+        <v>-0.04936421838277921</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0832353271088449</v>
+        <v>-0.07629904984977448</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1370,7 +1370,7 @@
         <v>2.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06035368033906591</v>
+        <v>0.05532420697747703</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1393,7 +1393,7 @@
         <v>20.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.11482870178522342</v>
+        <v>0.10525964330312165</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1416,7 +1416,7 @@
         <v>24.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06682620714241272</v>
+        <v>0.06125735654721165</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1470,10 +1470,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9784849450518471</v>
+        <v>0.9784849450518468</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7984628844403593</v>
+        <v>0.7984628844403499</v>
       </c>
     </row>
     <row r="3">
@@ -1510,10 +1510,10 @@
         <v>47</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8489515845295909</v>
+        <v>0.8489515845295901</v>
       </c>
       <c r="F4" t="n">
-        <v>7.236900188966373E-4</v>
+        <v>7.236900188966097E-4</v>
       </c>
     </row>
     <row r="5">
@@ -1530,10 +1530,10 @@
         <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9687725371402258</v>
+        <v>0.9687725371402263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5268877368154756</v>
+        <v>0.5268877368154855</v>
       </c>
     </row>
     <row r="6">
@@ -1550,10 +1550,10 @@
         <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9788306490545642</v>
+        <v>0.9788306490545645</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8077313911946924</v>
+        <v>0.8077313911947032</v>
       </c>
     </row>
     <row r="7">
@@ -1570,10 +1570,10 @@
         <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9895499973827379</v>
+        <v>0.9895499973827386</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9899960791930817</v>
+        <v>0.9899960791930855</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1763,7 @@
         <v>29.0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7069936019950469</v>
+        <v>-0.7069936019950492</v>
       </c>
       <c r="I2" t="n">
         <v>28.0</v>
@@ -1801,7 +1801,7 @@
         <v>29.0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.0240363949816933</v>
+        <v>-1.0240363949816966</v>
       </c>
       <c r="I3" t="n">
         <v>28.0</v>
@@ -1839,7 +1839,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.1485201201583701</v>
+        <v>-1.1485201201583637</v>
       </c>
       <c r="I4" t="n">
         <v>28.0</v>

--- a/statistics/R/roiObjectLvl_Within-PLI_delta/output.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_delta/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03507367518916438</v>
+        <v>0.03826219111545209</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07629904984977448</v>
+        <v>-0.0832353271088449</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0180845129075472</v>
+        <v>-0.019728559535506063</v>
       </c>
       <c r="F2" t="n">
-        <v>0.013572578789970036</v>
+        <v>0.01480644958905819</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.011109493616287103</v>
+        <v>-0.012119447581404208</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0038840796934079824</v>
+        <v>0.004237177847354168</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003485942149269894</v>
+        <v>0.0038028459810217075</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04738436437376875</v>
+        <v>-0.05169203386229321</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05532420697747703</v>
+        <v>0.06035368033906591</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.038908679413794445</v>
+        <v>-0.042445832087775914</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.02104561631415841</v>
+        <v>-0.022958854160900266</v>
       </c>
       <c r="H3" t="n">
-        <v>0.011009256232368314</v>
+        <v>0.012010097708038348</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007231381911688761</v>
+        <v>0.007888780267296835</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.005999795036244759</v>
+        <v>-0.006545230948630798</v>
       </c>
       <c r="E4" t="n">
-        <v>0.014641226502401239</v>
+        <v>0.01597224709352857</v>
       </c>
       <c r="F4" t="n">
-        <v>0.027594430976073503</v>
+        <v>0.030103015610261852</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0024605680196196356</v>
+        <v>0.002684256021403264</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03922793234387445</v>
+        <v>0.04279410801149941</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.014200713579595514</v>
+        <v>0.015491687541376975</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.030747795995380522</v>
+        <v>-0.03354305017677872</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005469547340929692</v>
+        <v>0.005966778917378013</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.024971070260925432</v>
+        <v>-0.027241167557373047</v>
       </c>
       <c r="G5" t="n">
-        <v>0.021825343966088984</v>
+        <v>0.02380946614482443</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01995085839928118</v>
+        <v>0.021764572799215898</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.004219022334964184</v>
+        <v>-0.004602569819961155</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008596930235741318</v>
+        <v>0.009378469348081286</v>
       </c>
       <c r="E6" t="n">
-        <v>0.015318670287614355</v>
+        <v>0.016711276677397413</v>
       </c>
       <c r="F6" t="n">
-        <v>0.038961115847305106</v>
+        <v>0.042503035469787454</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007887856800900261</v>
+        <v>0.00860493469189122</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03131379308915555</v>
+        <v>-0.034160501551805944</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0054631489005467215</v>
+        <v>-0.005959798800596494</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005310124342519984</v>
+        <v>0.005792862919112629</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.021398610166726117</v>
+        <v>-0.02334393836370119</v>
       </c>
       <c r="F7" t="n">
-        <v>0.016087449472542426</v>
+        <v>0.017549944879137358</v>
       </c>
       <c r="G7" t="n">
-        <v>0.033600784818758445</v>
+        <v>0.03665540162046377</v>
       </c>
       <c r="H7" t="n">
-        <v>0.028999040571676793</v>
+        <v>0.031635316987283724</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.047434674352832884</v>
+        <v>0.05174691747581772</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.013838874044188043</v>
+        <v>-0.015096953502750698</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008224290789853317</v>
+        <v>-0.008971953588930881</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.015540423300085093</v>
+        <v>-0.016953189054638496</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01483413315711446</v>
+        <v>-0.01618269071685219</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04068269064872332</v>
+        <v>0.04438111707133452</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.027603910699472323</v>
+        <v>-0.030113357126697105</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.006155047339178765</v>
+        <v>-0.00671459709728589</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.03708998604565522</v>
+        <v>-0.04046180295889662</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0018316773837822042</v>
+        <v>0.001998193509580637</v>
       </c>
       <c r="G9" t="n">
-        <v>0.010492386824441369</v>
+        <v>0.011446240172117983</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05931655157754823</v>
+        <v>0.06470896535732545</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007121036820525228</v>
+        <v>0.007768403804209401</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002073420265639947</v>
+        <v>0.0022619130170618007</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.006889253938943352</v>
+        <v>-0.007515549751574591</v>
       </c>
       <c r="F10" t="n">
-        <v>0.017826671731494492</v>
+        <v>0.01944727825253939</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0051164216321221145</v>
+        <v>-0.005581550871406049</v>
       </c>
       <c r="H10" t="n">
-        <v>0.011549958147510198</v>
+        <v>0.012599954342738473</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0028581824777476617</v>
+        <v>-0.003118017248451954</v>
       </c>
       <c r="D11" t="n">
-        <v>0.020297573644255495</v>
+        <v>0.022142807611915116</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.010884331536505476</v>
+        <v>-0.011873816221642242</v>
       </c>
       <c r="F11" t="n">
-        <v>0.045019845155714666</v>
+        <v>0.04911255835168876</v>
       </c>
       <c r="G11" t="n">
-        <v>0.014525822406257272</v>
+        <v>0.01584635171591703</v>
       </c>
       <c r="H11" t="n">
-        <v>0.046200997740852845</v>
+        <v>0.05040108844456659</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05452307530873507</v>
+        <v>-0.05947971851862016</v>
       </c>
       <c r="D12" t="n">
-        <v>0.016825041853645917</v>
+        <v>0.018354591113068197</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.020085480333927486</v>
+        <v>-0.02191143309155741</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0893753534976156</v>
+        <v>0.09750038563376268</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.578275215192944E-4</v>
+        <v>-0.001044902750748422</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007023706299068566</v>
+        <v>0.007662225053529315</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.009853344807578213</v>
+        <v>-0.010749103426449025</v>
       </c>
       <c r="D13" t="n">
-        <v>0.017066387039213204</v>
+        <v>0.01861787677005078</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0012376200162242945</v>
+        <v>-0.0013501309267900385</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.029182482171612678</v>
+        <v>-0.03183543509630471</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.009248506682081548</v>
+        <v>-0.010089280016816304</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04473605045687429</v>
+        <v>-0.04880296413477192</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.021561485571147454</v>
+        <v>-0.023521620623069783</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.008347870817677627</v>
+        <v>-0.00910676816473921</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01758495407563726</v>
+        <v>-0.01918358626433153</v>
       </c>
       <c r="F14" t="n">
-        <v>0.035146651035397936</v>
+        <v>0.03834180112952501</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.020367417106547603</v>
+        <v>-0.02221900047987002</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.009707002158692968</v>
+        <v>-0.010589456900392424</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.027919953644591267</v>
+        <v>-0.030458131248644937</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.011482756047973441</v>
+        <v>-0.012526642961425638</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.017922069666920948</v>
+        <v>-0.01955134872755021</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01758167533339161</v>
+        <v>-0.019180009454609015</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.012139905735387369</v>
+        <v>-0.01324353352951363</v>
       </c>
       <c r="H15" t="n">
-        <v>0.011471828914893012</v>
+        <v>0.01251472245261076</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.04833564585980049</v>
+        <v>-0.05272979548341877</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.002255449917063279</v>
+        <v>-0.002460490818614436</v>
       </c>
       <c r="E16" t="n">
-        <v>0.009331675998342726</v>
+        <v>0.010180010180010246</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.033744536461927765</v>
+        <v>-0.03681222159483016</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.047135574309487394</v>
+        <v>-0.05142062651944085</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.013817752006868356</v>
+        <v>-0.015073911280219898</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07794328144569695</v>
+        <v>0.08502903430439657</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.016142560507549086</v>
+        <v>-0.017610066008235448</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.026341558950254584</v>
+        <v>-0.028736246127550436</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02084583787482336</v>
+        <v>0.02274091404526174</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.011230174273652582</v>
+        <v>-0.012251099207620963</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03112329893730864</v>
+        <v>0.0339526897497911</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.04936421838277921</v>
+        <v>-0.053851874599395555</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.026662822515225282</v>
+        <v>-0.02908671547115499</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.004382905873030807</v>
+        <v>-0.004781351861488092</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05644599202783346</v>
+        <v>0.061577445848545576</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01299555248830625</v>
+        <v>-0.014176966350879394</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01923505446193502</v>
+        <v>0.020983695776656264</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.015171770533226658</v>
+        <v>0.016551022399883708</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.004372427983539207</v>
+        <v>-0.00476992143658822</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.009600093537291576</v>
+        <v>-0.010472829313409038</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.001838880734088666</v>
+        <v>-0.002006051709914858</v>
       </c>
       <c r="G19" t="n">
-        <v>0.013420336660502297</v>
+        <v>0.014640367266002652</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0140920323248514</v>
+        <v>-0.015373126172565144</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.023350489706597366</v>
+        <v>0.025473261498106137</v>
       </c>
       <c r="D20" t="n">
-        <v>0.026489140333533945</v>
+        <v>0.02889724400021898</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0013277282299019588</v>
+        <v>-0.0014484307962568388</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05487294942751031</v>
+        <v>0.05986139937546586</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0032788601629180625</v>
+        <v>-0.003576938359547144</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.00787058784866601</v>
+        <v>-0.008586095834908214</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05249402532011227</v>
+        <v>0.05726620944012245</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.03258279245121354</v>
+        <v>-0.03554486449223304</v>
       </c>
       <c r="E21" t="n">
-        <v>0.10525964330312165</v>
+        <v>0.11482870178522342</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05898638116410804</v>
+        <v>0.06434877945175427</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02413287142978221</v>
+        <v>0.026326768832489633</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04125211371588178</v>
+        <v>0.045002305871871096</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04250546673820316</v>
+        <v>0.04636960007803986</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.009267646269457974</v>
+        <v>-0.010110159566681431</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.010271201054715628</v>
+        <v>-0.011204946605144261</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.018030076256284444</v>
+        <v>-0.019669174097764974</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02449061750303988</v>
+        <v>0.026717037276043354</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.006035538644234284</v>
+        <v>-0.0065842239755283805</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0016383921879090102</v>
+        <v>-0.001787336932264294</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.001896306245368E-4</v>
+        <v>-5.45661415226717E-4</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0065871690585649345</v>
+        <v>0.007186002609343545</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0021548662853010936</v>
+        <v>-0.002350763220328511</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.025899980562451907</v>
+        <v>-0.028254524249947566</v>
       </c>
       <c r="H23" t="n">
-        <v>0.012819439369950891</v>
+        <v>0.013984842949037513</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.005304217260738986</v>
+        <v>-0.005786418829897111</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01834619593804704</v>
+        <v>0.020014031932414855</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0038340618050761166</v>
+        <v>0.004182612878265102</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0051911178913467415</v>
+        <v>0.005663037699651041</v>
       </c>
       <c r="G24" t="n">
-        <v>0.057868565877719214</v>
+        <v>0.06312934459387565</v>
       </c>
       <c r="H24" t="n">
-        <v>0.027582698539983075</v>
+        <v>0.03009021658907235</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01609493944576401</v>
+        <v>0.01755811575901528</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0034902915337697293</v>
+        <v>0.003807590764112634</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06125735654721165</v>
+        <v>0.06682620714241272</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01777631668936025</v>
+        <v>0.019392345479302076</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.004865847671230605</v>
+        <v>-0.005308197459524322</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001563748336846138</v>
+        <v>0.0017059072765595595</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.003736696814500229</v>
+        <v>-0.004076396524909098</v>
       </c>
       <c r="D26" t="n">
-        <v>0.031038536318039378</v>
+        <v>0.033860221437861215</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01151392338519358</v>
+        <v>0.012560643692938578</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01766653521311906</v>
+        <v>0.019272583868857163</v>
       </c>
       <c r="G26" t="n">
-        <v>0.016102690921531493</v>
+        <v>0.01756657191439792</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.022711318827047855</v>
+        <v>-0.024775984174961074</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02918163425409792</v>
+        <v>0.03183451009537969</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001623674726268176</v>
+        <v>0.0017712815195653486</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.015530370654594283</v>
+        <v>-0.016942222532284668</v>
       </c>
       <c r="F27" t="n">
-        <v>6.909082996039428E-4</v>
+        <v>7.537181450223973E-4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.020375826535246833</v>
+        <v>0.02222817440208741</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03265144026013589</v>
+        <v>0.03561975301105741</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0076145608538638054</v>
+        <v>0.008306793658760525</v>
       </c>
       <c r="D28" t="n">
-        <v>0.015095565411133605</v>
+        <v>0.016467889539418468</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03300891902945052</v>
+        <v>0.036009729850309646</v>
       </c>
       <c r="F28" t="n">
-        <v>0.019342465246968366</v>
+        <v>0.02110087117851095</v>
       </c>
       <c r="G28" t="n">
-        <v>9.733658150807845E-4</v>
+        <v>0.001061853616451891</v>
       </c>
       <c r="H28" t="n">
-        <v>0.011601138039756875</v>
+        <v>0.012655786952462167</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.032884142723959675</v>
+        <v>0.035873610244319565</v>
       </c>
       <c r="D29" t="n">
-        <v>0.022129949666181647</v>
+        <v>0.024141763272198136</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.007817146857001966</v>
+        <v>-0.008527796571274893</v>
       </c>
       <c r="F29" t="n">
-        <v>0.015160717223578868</v>
+        <v>0.01653896424390433</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.013302543892605878</v>
+        <v>-0.014511866064661039</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0016375070722897123</v>
+        <v>-0.001786371351588767</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.009526335341552616</v>
+        <v>0.010392365827148475</v>
       </c>
       <c r="D30" t="n">
-        <v>0.025954972829972722</v>
+        <v>0.028314515814515884</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.042918284917077054</v>
+        <v>-0.0468199471822659</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.034490002424785005</v>
+        <v>-0.03762545719067473</v>
       </c>
       <c r="G30" t="n">
-        <v>0.040834195997239475</v>
+        <v>0.04454639563335211</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.021685689448847356</v>
+        <v>-0.02365711576237889</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="G2" t="n">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="3">
@@ -1135,7 +1135,7 @@
         <v>-0.003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="4">
@@ -1158,7 +1158,7 @@
         <v>0.002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="5">
@@ -1178,10 +1178,10 @@
         <v>29.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="G5" t="n">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="6">
@@ -1204,7 +1204,7 @@
         <v>0.003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>11.0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.05452307530873507</v>
+        <v>-0.05947971851862016</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>16.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07794328144569695</v>
+        <v>0.08502903430439657</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>17.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04936421838277921</v>
+        <v>-0.053851874599395555</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.07629904984977448</v>
+        <v>-0.0832353271088449</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1370,7 +1370,7 @@
         <v>2.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05532420697747703</v>
+        <v>0.06035368033906591</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1393,7 +1393,7 @@
         <v>20.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.10525964330312165</v>
+        <v>0.11482870178522342</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1416,7 +1416,7 @@
         <v>24.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06125735654721165</v>
+        <v>0.06682620714241272</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1470,10 +1470,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9784849450518468</v>
+        <v>0.9784849450518471</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7984628844403499</v>
+        <v>0.7984628844403593</v>
       </c>
     </row>
     <row r="3">
@@ -1510,10 +1510,10 @@
         <v>47</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8489515845295901</v>
+        <v>0.8489515845295909</v>
       </c>
       <c r="F4" t="n">
-        <v>7.236900188966097E-4</v>
+        <v>7.236900188966373E-4</v>
       </c>
     </row>
     <row r="5">
@@ -1530,10 +1530,10 @@
         <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9687725371402263</v>
+        <v>0.9687725371402258</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5268877368154855</v>
+        <v>0.5268877368154756</v>
       </c>
     </row>
     <row r="6">
@@ -1550,10 +1550,10 @@
         <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9788306490545645</v>
+        <v>0.9788306490545642</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8077313911947032</v>
+        <v>0.8077313911946924</v>
       </c>
     </row>
     <row r="7">
@@ -1570,10 +1570,10 @@
         <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9895499973827386</v>
+        <v>0.9895499973827379</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9899960791930855</v>
+        <v>0.9899960791930817</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1763,7 @@
         <v>29.0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7069936019950492</v>
+        <v>-0.7069936019950469</v>
       </c>
       <c r="I2" t="n">
         <v>28.0</v>
@@ -1801,7 +1801,7 @@
         <v>29.0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.0240363949816966</v>
+        <v>-1.0240363949816933</v>
       </c>
       <c r="I3" t="n">
         <v>28.0</v>
@@ -1839,7 +1839,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.1485201201583637</v>
+        <v>-1.1485201201583701</v>
       </c>
       <c r="I4" t="n">
         <v>28.0</v>
